--- a/pdfs/VESTUNB_18.xlsx
+++ b/pdfs/VESTUNB_18.xlsx
@@ -705,99 +705,73 @@
       <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3">
-        <v>4</v>
-      </c>
+      <c r="E1" s="3"/>
       <c r="F1" s="2">
+        <v>100</v>
+      </c>
+      <c r="G1" s="2">
+        <v>101</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="J1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="3">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2">
+      <c r="K1" s="3"/>
+      <c r="L1" s="2">
+        <v>102</v>
+      </c>
+      <c r="M1" s="2">
+        <v>103</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="P1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="3">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="2">
+        <v>104</v>
+      </c>
+      <c r="S1" s="2">
+        <v>105</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
+      <c r="V1" s="2">
         <v>12</v>
       </c>
-      <c r="N1" s="3">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2">
+      <c r="W1" s="3"/>
+      <c r="X1" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="2">
         <v>14</v>
       </c>
-      <c r="P1" s="2">
+      <c r="AB1" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" s="3">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2">
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="2">
         <v>17</v>
       </c>
-      <c r="S1" s="2">
+      <c r="AE1" s="2">
         <v>18</v>
       </c>
-      <c r="T1" s="3">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="3">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="3">
-        <v>34</v>
-      </c>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1">
